--- a/trunk/1. Project management/7. Measurement plan/Templates/AS_ME_Customer Satisfaction Survey_Template.xlsx
+++ b/trunk/1. Project management/7. Measurement plan/Templates/AS_ME_Customer Satisfaction Survey_Template.xlsx
@@ -437,9 +437,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,86 +457,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -847,7 +847,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -928,355 +928,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="11" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="26"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="26"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="26"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="23"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="26"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="26"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="26"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="23"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="26"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="26"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="23"/>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="26"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="36"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="36"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="17"/>
+      <c r="E53" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1295,7 +1295,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
